--- a/posesiones/1463357.xlsx
+++ b/posesiones/1463357.xlsx
@@ -1859,10 +1859,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2053,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>16</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2156,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>6</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2256,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>18</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <v>17</v>
@@ -2409,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2553,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>17</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <v>11</v>
@@ -2709,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20">
         <v>22</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2906,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R24">
         <v>22</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3006,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R26">
         <v>12</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3106,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R28">
         <v>25</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3209,7 +3209,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R30">
         <v>5</v>
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3356,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -3409,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R34">
         <v>18</v>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3509,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3559,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R37">
         <v>19</v>
@@ -3612,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R38">
         <v>13</v>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3715,7 +3715,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R40">
         <v>12</v>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3818,7 +3818,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R42">
         <v>5</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3965,7 +3965,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R45">
         <v>22</v>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4065,7 +4065,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R47">
         <v>18</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4168,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R49">
         <v>6</v>
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4271,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R51">
         <v>10</v>
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4374,7 +4374,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R53">
         <v>10</v>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4474,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4524,7 +4524,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R56">
         <v>5</v>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4821,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R62">
         <v>13</v>
@@ -4874,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4921,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4968,7 +4968,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5062,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5112,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R68">
         <v>19</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5259,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5406,7 +5406,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R74">
         <v>31</v>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5506,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R76">
         <v>21</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5609,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R78">
         <v>13</v>
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5712,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R80">
         <v>8</v>
@@ -5765,7 +5765,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R81">
         <v>20</v>
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5868,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R83">
         <v>11</v>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6065,7 +6065,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R87">
         <v>16</v>
@@ -6115,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6162,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6212,7 +6212,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R90">
         <v>0</v>
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6309,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6453,7 +6453,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R95">
         <v>20</v>
@@ -6506,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6556,7 +6556,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R97">
         <v>11</v>
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6656,7 +6656,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R99">
         <v>14</v>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6756,7 +6756,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R101">
         <v>20</v>
@@ -6806,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6856,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R103">
         <v>6</v>
@@ -6909,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R104">
         <v>14</v>
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7009,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7056,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7197,7 +7197,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7388,7 +7388,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R114">
         <v>2</v>
@@ -7438,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7485,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7535,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R117">
         <v>24</v>
@@ -7588,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7638,7 +7638,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R119">
         <v>21</v>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7729,10 +7729,10 @@
         <v>1</v>
       </c>
       <c r="P121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q121">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7773,10 +7773,10 @@
         <v>1</v>
       </c>
       <c r="P122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q122">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7826,7 +7826,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R123">
         <v>12</v>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7926,7 +7926,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R125">
         <v>10</v>
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8029,7 +8029,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R127">
         <v>20</v>
@@ -8082,7 +8082,7 @@
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R128">
         <v>21</v>
@@ -8135,7 +8135,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R129">
         <v>16</v>
@@ -8188,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8238,7 +8238,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R131">
         <v>13</v>
@@ -8288,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8338,7 +8338,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8388,7 +8388,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R134">
         <v>20</v>
@@ -8441,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8488,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8582,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8629,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8676,7 +8676,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8723,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8958,7 +8958,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9055,7 +9055,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R148">
         <v>24</v>
@@ -9108,7 +9108,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R149">
         <v>19</v>
@@ -9158,7 +9158,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9208,7 +9208,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R151">
         <v>14</v>
@@ -9261,7 +9261,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R152">
         <v>12</v>
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9364,7 +9364,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R154">
         <v>12</v>
@@ -9414,7 +9414,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9464,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9511,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9605,7 +9605,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9702,7 +9702,7 @@
         <v>1</v>
       </c>
       <c r="Q161">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R161">
         <v>49</v>
@@ -9752,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9802,7 +9802,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R163">
         <v>20</v>
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9902,7 +9902,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R165">
         <v>19</v>
@@ -9955,7 +9955,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R166">
         <v>6</v>
@@ -10005,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10052,7 +10052,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10099,7 +10099,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10152,7 +10152,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R170">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10249,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10299,7 +10299,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R173">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R174">
         <v>8</v>
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10452,7 +10452,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R176">
         <v>15</v>
@@ -10502,7 +10502,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10546,7 +10546,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10593,7 +10593,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10690,7 +10690,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R181">
         <v>13</v>
@@ -10740,7 +10740,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10790,7 +10790,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R183">
         <v>19</v>
@@ -10840,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10887,7 +10887,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10934,7 +10934,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10981,7 +10981,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11028,7 +11028,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11122,7 +11122,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11216,7 +11216,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11266,7 +11266,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R193">
         <v>23</v>
@@ -11316,7 +11316,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11369,7 +11369,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R195">
         <v>18</v>
@@ -11419,7 +11419,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11469,7 +11469,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R197">
         <v>19</v>
@@ -11522,7 +11522,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11572,7 +11572,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R199">
         <v>18</v>
@@ -11625,7 +11625,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11672,7 +11672,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11719,7 +11719,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11766,7 +11766,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11816,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R204">
         <v>4</v>
@@ -11866,7 +11866,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11916,7 +11916,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11966,7 +11966,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R207">
         <v>22</v>
@@ -12016,7 +12016,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12066,7 +12066,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12113,7 +12113,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12163,7 +12163,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12213,7 +12213,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R212">
         <v>27</v>
@@ -12266,7 +12266,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12316,7 +12316,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R214">
         <v>9</v>
@@ -12369,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12416,7 +12416,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12463,7 +12463,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12510,7 +12510,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12560,7 +12560,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R219">
         <v>15</v>
@@ -12613,7 +12613,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R220">
         <v>9</v>
@@ -12663,7 +12663,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12707,7 +12707,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12757,7 +12757,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R223">
         <v>18</v>
@@ -12810,7 +12810,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12860,7 +12860,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R225">
         <v>14</v>
@@ -12913,7 +12913,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R226">
         <v>23</v>
@@ -12966,7 +12966,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13016,7 +13016,7 @@
         <v>1</v>
       </c>
       <c r="Q228">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R228">
         <v>8</v>
@@ -13069,7 +13069,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13119,7 +13119,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R230">
         <v>15</v>
@@ -13172,7 +13172,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R231">
         <v>16</v>
@@ -13216,10 +13216,10 @@
         <v>1</v>
       </c>
       <c r="P232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q232">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13266,7 +13266,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13313,7 +13313,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13360,7 +13360,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13407,7 +13407,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13448,10 +13448,10 @@
         <v>1</v>
       </c>
       <c r="P237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q237">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13501,7 +13501,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R238">
         <v>20</v>
@@ -13554,7 +13554,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R239">
         <v>13</v>
@@ -13604,7 +13604,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13651,7 +13651,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13698,7 +13698,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13748,7 +13748,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R243">
         <v>12</v>
@@ -13798,7 +13798,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13848,7 +13848,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R246">
         <v>28</v>
@@ -13948,7 +13948,7 @@
         <v>1</v>
       </c>
       <c r="Q247">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R247">
         <v>23</v>
@@ -14001,7 +14001,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14051,7 +14051,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R249">
         <v>13</v>
@@ -14101,7 +14101,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14151,7 +14151,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R251">
         <v>14</v>
@@ -14204,7 +14204,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14254,7 +14254,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R253">
         <v>7</v>
@@ -14304,7 +14304,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14354,7 +14354,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R255">
         <v>43</v>
@@ -14404,7 +14404,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14451,7 +14451,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14498,7 +14498,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14548,7 +14548,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R259">
         <v>8</v>
@@ -14601,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14651,7 +14651,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R261">
         <v>1</v>
@@ -14701,7 +14701,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14748,7 +14748,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14795,7 +14795,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14845,7 +14845,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R265">
         <v>2</v>
@@ -14898,7 +14898,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R266">
         <v>11</v>
@@ -14951,7 +14951,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R267">
         <v>18</v>
@@ -15001,7 +15001,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15051,7 +15051,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R269">
         <v>16</v>
@@ -15101,7 +15101,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15148,7 +15148,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15195,7 +15195,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15245,7 +15245,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R273">
         <v>0</v>
@@ -15298,7 +15298,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15348,7 +15348,7 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R275">
         <v>13</v>
@@ -15401,7 +15401,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15451,7 +15451,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R277">
         <v>15</v>
@@ -15504,7 +15504,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15554,7 +15554,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R279">
         <v>4</v>
@@ -15604,7 +15604,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15651,7 +15651,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15698,7 +15698,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15748,7 +15748,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R283">
         <v>13</v>
@@ -15801,7 +15801,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R284">
         <v>16</v>
@@ -15851,7 +15851,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15898,7 +15898,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15945,7 +15945,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15995,7 +15995,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R288">
         <v>11</v>
@@ -16045,7 +16045,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16092,7 +16092,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16139,7 +16139,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16186,7 +16186,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16233,7 +16233,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16280,7 +16280,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16330,7 +16330,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R295">
         <v>14</v>
@@ -16380,7 +16380,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16427,7 +16427,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16474,7 +16474,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16521,7 +16521,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16568,7 +16568,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16615,7 +16615,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16662,7 +16662,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16712,7 +16712,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R303">
         <v>30</v>
@@ -16765,7 +16765,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16815,7 +16815,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R305">
         <v>15</v>
@@ -16868,7 +16868,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16918,7 +16918,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R307">
         <v>7</v>
@@ -16968,7 +16968,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17018,7 +17018,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R309">
         <v>5</v>
@@ -17068,7 +17068,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17118,7 +17118,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R311">
         <v>5</v>
@@ -17171,7 +17171,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R312">
         <v>18</v>
@@ -17221,7 +17221,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17274,7 +17274,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R314">
         <v>14</v>
@@ -17324,7 +17324,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17374,7 +17374,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R316">
         <v>13</v>
@@ -17427,7 +17427,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R317">
         <v>18</v>
@@ -17477,7 +17477,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17524,7 +17524,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17571,7 +17571,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17618,7 +17618,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17665,7 +17665,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17712,7 +17712,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17759,7 +17759,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17809,7 +17809,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R325">
         <v>15</v>
@@ -17862,7 +17862,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R326">
         <v>17</v>
@@ -17912,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17959,7 +17959,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -18006,7 +18006,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18053,7 +18053,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18103,7 +18103,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R331">
         <v>6</v>
@@ -18156,7 +18156,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18206,7 +18206,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R333">
         <v>16</v>
@@ -18259,7 +18259,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18303,7 +18303,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18353,7 +18353,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R336">
         <v>15</v>
@@ -18403,7 +18403,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18450,7 +18450,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18497,7 +18497,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18547,7 +18547,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R340">
         <v>16</v>
@@ -18597,7 +18597,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18647,7 +18647,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R342">
         <v>19</v>
@@ -18700,7 +18700,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R343">
         <v>25</v>
@@ -18750,7 +18750,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18800,7 +18800,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18850,7 +18850,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R346">
         <v>20</v>
@@ -18894,10 +18894,10 @@
         <v>1</v>
       </c>
       <c r="P347" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q347">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18944,7 +18944,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18991,7 +18991,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19032,10 +19032,10 @@
         <v>1</v>
       </c>
       <c r="P350" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q350">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19085,7 +19085,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R351">
         <v>16</v>
@@ -19138,7 +19138,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R352">
         <v>20</v>
@@ -19191,7 +19191,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R353">
         <v>21</v>
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19288,7 +19288,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19335,7 +19335,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19382,7 +19382,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19429,7 +19429,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19476,7 +19476,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19523,7 +19523,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19570,7 +19570,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19620,7 +19620,7 @@
         <v>1</v>
       </c>
       <c r="Q362">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R362">
         <v>28</v>
@@ -19670,7 +19670,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19717,7 +19717,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19764,7 +19764,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19811,7 +19811,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19861,7 +19861,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R367">
         <v>15</v>
@@ -19914,7 +19914,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R368">
         <v>18</v>
@@ -19964,7 +19964,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20014,7 +20014,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R370">
         <v>6</v>
@@ -20064,7 +20064,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20111,7 +20111,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20158,7 +20158,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20205,7 +20205,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20255,7 +20255,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R375">
         <v>18</v>
@@ -20308,7 +20308,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R376">
         <v>19</v>
@@ -20358,7 +20358,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20408,7 +20408,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R378">
         <v>18</v>
@@ -20458,7 +20458,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20505,7 +20505,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20552,7 +20552,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20599,7 +20599,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20649,7 +20649,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R383">
         <v>24</v>
@@ -20702,7 +20702,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20752,7 +20752,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R385">
         <v>16</v>
@@ -20805,7 +20805,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20855,7 +20855,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R387">
         <v>16</v>
@@ -20905,7 +20905,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20952,7 +20952,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20999,7 +20999,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21046,7 +21046,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21093,7 +21093,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21143,7 +21143,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R393">
         <v>19</v>
@@ -21196,7 +21196,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R394">
         <v>20</v>
@@ -21249,7 +21249,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R395">
         <v>18</v>
@@ -21299,7 +21299,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21349,7 +21349,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R397">
         <v>20</v>
@@ -21402,7 +21402,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21452,7 +21452,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R399">
         <v>16</v>
@@ -21505,7 +21505,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21555,7 +21555,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R401">
         <v>10</v>
@@ -21605,7 +21605,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21652,7 +21652,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21699,7 +21699,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21746,7 +21746,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21796,7 +21796,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R406">
         <v>10</v>
@@ -21849,7 +21849,7 @@
         <v>1</v>
       </c>
       <c r="Q407">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R407">
         <v>18</v>
@@ -21902,7 +21902,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21952,7 +21952,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R409">
         <v>3</v>
@@ -22002,7 +22002,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22049,7 +22049,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22096,7 +22096,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22143,7 +22143,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22190,7 +22190,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22240,7 +22240,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R415">
         <v>0</v>
@@ -22287,7 +22287,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22337,7 +22337,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R417">
         <v>16</v>
@@ -22390,7 +22390,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R418">
         <v>14</v>
@@ -22440,7 +22440,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22487,7 +22487,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22534,7 +22534,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22581,7 +22581,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22631,7 +22631,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R423">
         <v>4</v>
@@ -22684,7 +22684,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R424">
         <v>19</v>
@@ -22737,7 +22737,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R425">
         <v>22</v>
@@ -22787,7 +22787,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22878,7 +22878,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22925,7 +22925,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22972,7 +22972,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23019,7 +23019,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23116,7 +23116,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R433">
         <v>9</v>
@@ -23169,7 +23169,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R434">
         <v>16</v>
@@ -23219,7 +23219,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23269,7 +23269,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R436">
         <v>26</v>
@@ -23322,7 +23322,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23369,7 +23369,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23513,7 +23513,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R441">
         <v>11</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23607,7 +23607,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23654,7 +23654,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23748,7 +23748,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23842,7 +23842,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23889,7 +23889,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23939,7 +23939,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R450">
         <v>8</v>
@@ -23992,7 +23992,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R451">
         <v>7</v>
@@ -24042,7 +24042,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24089,7 +24089,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24233,7 +24233,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R456">
         <v>7</v>
@@ -24286,7 +24286,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24336,7 +24336,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R458">
         <v>16</v>
@@ -24386,7 +24386,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24436,7 +24436,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24486,7 +24486,7 @@
         <v>1</v>
       </c>
       <c r="Q461">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R461">
         <v>5</v>
@@ -24536,7 +24536,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24583,7 +24583,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24630,7 +24630,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24677,7 +24677,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24727,7 +24727,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R466">
         <v>0</v>
@@ -24777,7 +24777,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24871,7 +24871,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24918,7 +24918,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24965,7 +24965,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -25015,7 +25015,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R472">
         <v>10</v>
@@ -25065,7 +25065,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25112,7 +25112,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25162,7 +25162,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R475">
         <v>23</v>
@@ -25215,7 +25215,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25262,7 +25262,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25309,7 +25309,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25409,7 +25409,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R480">
         <v>10</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25506,7 +25506,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25553,7 +25553,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25647,7 +25647,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25741,7 +25741,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25791,7 +25791,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R488">
         <v>0</v>
@@ -25838,7 +25838,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25888,7 +25888,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R490">
         <v>2</v>
@@ -25944,7 +25944,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R491">
         <v>0</v>
@@ -25988,10 +25988,10 @@
         <v>1</v>
       </c>
       <c r="P492" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q492">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
